--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56067.848649372</v>
+        <v>117836.3873733403</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890403</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8454511.961125104</v>
+        <v>8466266.645069964</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,10 +671,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>203.4567449591752</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>41.75775615818458</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>66.01622547364059</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>189.5091344485163</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -914,7 +914,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>188.5734800915124</v>
+        <v>67.92295128808459</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>7.327522779079275</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>23.21215624113652</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>337.4509350052174</v>
+        <v>90.71231524277226</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>3.100774428924619</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>133.942529283065</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>89.78027874887924</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783088969</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
-        <v>153.2006427344286</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>262.9998179651458</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659338</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>18.05677735225755</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5395542426775</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>12.66749730000318</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170533</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>103.3456594571957</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>173.0082553060128</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287209</v>
       </c>
     </row>
     <row r="21">
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253728</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2479,10 +2479,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>83.71046610478338</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.6974459740356</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2956,16 +2956,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>119.863446390054</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3004,7 +3004,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>202.0194837598082</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3190,19 +3190,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,7 +3241,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>231.5767549050485</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>179.7915225946174</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545403</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.3530449561369</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242213</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925392</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169443</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174058</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267643</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>24.4087526250911</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591153</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432397</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934401</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095264</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811742</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242216</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>7.264602967362705</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006779</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293449</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>56.72042565247676</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006771</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>219.2875345484107</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.5168885550254</v>
+        <v>1667.248894477528</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>1633.146825701355</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>1197.2370408758</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>1167.502700074499</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>739.6352704837067</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.3060841805662</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797691</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756285</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693179</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2151.645126566218</v>
       </c>
       <c r="U2" t="n">
-        <v>1408.019692669128</v>
+        <v>2151.645126566218</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>2151.645126566218</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.164238080161</v>
+        <v>2150.830076017655</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>1731.687612596966</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1689.508060922032</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397437</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940183</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.4105542393174</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>774.8488427225424</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="J4" t="n">
-        <v>68.4625259617433</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>343.2209805328789</v>
+        <v>200.0427573423681</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>618.2526391103291</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>1077.736506291242</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1519.995309448887</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674668</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.17145264501</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214714</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512711</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2028.825591091166</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>2028.825591091166</v>
       </c>
       <c r="V4" t="n">
-        <v>1451.303983658873</v>
+        <v>2028.825591091166</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.620927624892</v>
+        <v>1756.799186677457</v>
       </c>
       <c r="X4" t="n">
-        <v>1139.229172958305</v>
+        <v>1511.40743201087</v>
       </c>
       <c r="Y4" t="n">
-        <v>1139.229172958305</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.4212598210011</v>
+        <v>2075.583230496374</v>
       </c>
       <c r="C5" t="n">
-        <v>810.3191910448285</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D5" t="n">
-        <v>778.4498102596771</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E5" t="n">
-        <v>748.7154694583763</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X5" t="n">
-        <v>1057.158688984204</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y5" t="n">
-        <v>866.6804262655048</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.4003675628674</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C7" t="n">
-        <v>346.8386560460923</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8386560460923</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8386560460923</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>346.8386560460923</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>181.24738107192</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>41.34520676229448</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>341.3779633559367</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>341.3779633559367</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>746.820038248759</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.4003675628674</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.2683911281801</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>133.1663223520075</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>101.296941566856</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>71.56260076555526</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>47.73557521516705</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>489.6704234713162</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1080.398166759008</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1671.1259100467</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2217.624696005295</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.778760758352</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2386.778760758352</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2166.711533631391</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2166.711533631391</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1825.85200332309</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="W8" t="n">
-        <v>1420.996548734124</v>
+        <v>1830.702594087989</v>
       </c>
       <c r="X8" t="n">
-        <v>1001.854085313434</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y8" t="n">
-        <v>593.5679616130878</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.9073202064599</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431021</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896554</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.2401555166091</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8563171327707</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.47122739895457</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>47.73557521516705</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>47.73557521516705</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>47.73557521516705</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>47.73557521516705</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>47.73557521516705</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>47.73557521516705</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>462.3358766798686</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599636</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.341255472961</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534928</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681223</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070023</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.211221286223</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>960.9157430285712</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C10" t="n">
-        <v>788.3540315117962</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D10" t="n">
-        <v>788.3540315117962</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5960277625334</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8889737242895</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2976987501172</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3955244404917</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>47.73557521516705</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.3152603798569</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>409.0737149509925</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>827.2835967189535</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1286.767463899866</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1729.026267057511</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1871.079091923678</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.58598589402</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.778760758352</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.360939463724</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2206.119570761721</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1960.240124340176</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1957.108028957424</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1670.152520827854</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1398.126116414146</v>
+        <v>1542.838197012479</v>
       </c>
       <c r="X10" t="n">
-        <v>1152.734361747558</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y10" t="n">
-        <v>1152.734361747558</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.969386844472</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.826914027895</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.917129202339</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.142384360634</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>785.2749547698421</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>383.877123393106</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632224</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K11" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="L11" t="n">
-        <v>1035.318745847208</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="M11" t="n">
-        <v>2192.366581057759</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N11" t="n">
-        <v>2192.366581057759</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O11" t="n">
-        <v>3172.546247628065</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P11" t="n">
-        <v>4000.85612246146</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q11" t="n">
-        <v>4547.354908420056</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.508973173112</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4632.857099356949</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4632.857099356949</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4542.169949105555</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>4179.552999039382</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.697544450415</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3355.555081029726</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2947.268957329379</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.501924454755</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J12" t="n">
-        <v>94.33017946346224</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K12" t="n">
-        <v>94.33017946346224</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>94.33017946346224</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>94.33017946346224</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>94.33017946346224</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>279.9350577366578</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345181</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1173.388340075344</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.826628558569</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>834.9486357600917</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>665.1906320108287</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>488.483577972585</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>322.8923029984124</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
-        <v>182.9901286887869</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.748420664258</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2397.000296690088</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2397.000296690088</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>2110.044788560519</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1838.018384146811</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.626629480223</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1365.206958794332</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2352.434234412882</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C14" t="n">
-        <v>1914.291761596306</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
-        <v>1478.38197677075</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.725594987774</v>
+        <v>944.8298656847292</v>
       </c>
       <c r="F14" t="n">
-        <v>784.8581653969821</v>
+        <v>516.962436093937</v>
       </c>
       <c r="G14" t="n">
-        <v>383.460334020246</v>
+        <v>115.5646047172008</v>
       </c>
       <c r="H14" t="n">
-        <v>94.33017946346224</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="L14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="M14" t="n">
-        <v>1066.635597621311</v>
+        <v>1186.925458503957</v>
       </c>
       <c r="N14" t="n">
-        <v>2192.366581057759</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O14" t="n">
-        <v>3172.546247628065</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P14" t="n">
-        <v>4000.85612246146</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q14" t="n">
-        <v>4547.354908420056</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.508973173112</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4632.857099356949</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4632.857099356949</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4373.634796673966</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>4011.017846607792</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3606.162392018826</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3187.019928598137</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2778.73380489779</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.501924454755</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J15" t="n">
-        <v>94.33017946346224</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K15" t="n">
-        <v>94.33017946346224</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>94.33017946346224</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>94.33017946346224</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>94.33017946346224</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>279.9350577366578</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345181</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.8262165403934</v>
+        <v>965.4711828007307</v>
       </c>
       <c r="C16" t="n">
-        <v>772.2645050236183</v>
+        <v>792.9094712839557</v>
       </c>
       <c r="D16" t="n">
-        <v>606.3865122251411</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E16" t="n">
-        <v>436.6285084758783</v>
+        <v>457.2734747362157</v>
       </c>
       <c r="F16" t="n">
-        <v>259.9214544376346</v>
+        <v>280.5664206979719</v>
       </c>
       <c r="G16" t="n">
-        <v>94.33017946346217</v>
+        <v>114.9751457237996</v>
       </c>
       <c r="H16" t="n">
-        <v>94.33017946346224</v>
+        <v>114.9751457237996</v>
       </c>
       <c r="I16" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281521</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992877</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672487</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305806</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.750620323578</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.871173902033</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2168.438173155138</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1881.482665025568</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.45626061186</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1364.064505945272</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.64483525938</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2132.36700728592</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C17" t="n">
-        <v>1694.224534469344</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D17" t="n">
-        <v>1258.314749643788</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>824.5400048020833</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>396.6725752112911</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>383.877123393106</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>94.74696883632224</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="L17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="M17" t="n">
-        <v>1066.635597621311</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N17" t="n">
-        <v>2192.366581057759</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O17" t="n">
-        <v>3172.546247628065</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P17" t="n">
-        <v>4000.85612246146</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q17" t="n">
-        <v>4547.354908420056</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.508973173112</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4632.857099356949</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4412.789872229988</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U17" t="n">
-        <v>4153.567569547004</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V17" t="n">
-        <v>3790.950619480831</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3386.095164891864</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X17" t="n">
-        <v>2966.952701471175</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y17" t="n">
-        <v>2558.666577770829</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.501924454755</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="L18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="M18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="N18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="O18" t="n">
-        <v>279.9350577366578</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="P18" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345181</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.8262165403935</v>
+        <v>806.229814098728</v>
       </c>
       <c r="C19" t="n">
-        <v>772.2645050236184</v>
+        <v>633.6681025819529</v>
       </c>
       <c r="D19" t="n">
-        <v>606.3865122251411</v>
+        <v>467.7901097834756</v>
       </c>
       <c r="E19" t="n">
-        <v>436.6285084758784</v>
+        <v>298.0321060342129</v>
       </c>
       <c r="F19" t="n">
-        <v>259.9214544376346</v>
+        <v>121.325051995969</v>
       </c>
       <c r="G19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281521</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992877</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672487</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305806</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.202811719582</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="R19" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S19" t="n">
-        <v>2551.748420664258</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2305.868974242713</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2027.435973495819</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1740.480465366249</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1468.454060952541</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1364.064505945272</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>1136.644835259381</v>
+        <v>998.0484328177151</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2520.552597471611</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.410124655034</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.500339829479</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1212.725594987774</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>784.8581653969821</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>383.460334020246</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>94.33017946346229</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="L20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="M20" t="n">
-        <v>1066.635597621311</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N20" t="n">
-        <v>2192.366581057759</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O20" t="n">
-        <v>3172.546247628065</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P20" t="n">
-        <v>4000.85612246146</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q20" t="n">
-        <v>4547.354908420056</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.508973173112</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S20" t="n">
-        <v>4716.508973173112</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T20" t="n">
-        <v>4541.753159732695</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U20" t="n">
-        <v>4541.753159732695</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V20" t="n">
-        <v>4179.136209666522</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W20" t="n">
-        <v>3774.280755077555</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3355.138291656866</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2946.852167956519</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.501924454755</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>94.33017946346224</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="K21" t="n">
-        <v>94.33017946346224</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="L21" t="n">
-        <v>94.33017946346224</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="M21" t="n">
-        <v>94.33017946346224</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N21" t="n">
-        <v>94.33017946346224</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O21" t="n">
-        <v>279.9350577366578</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345181</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>944.8262165403934</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C22" t="n">
-        <v>772.2645050236183</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D22" t="n">
-        <v>606.3865122251411</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E22" t="n">
-        <v>436.6285084758783</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F22" t="n">
-        <v>259.9214544376346</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G22" t="n">
-        <v>94.33017946346224</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>94.33017946346224</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>94.33017946346224</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281521</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992877</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672487</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305806</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2692.750620323578</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.871173902033</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2168.438173155138</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="V22" t="n">
-        <v>1881.482665025568</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W22" t="n">
-        <v>1609.45626061186</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X22" t="n">
-        <v>1364.064505945272</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y22" t="n">
-        <v>1136.64483525938</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="23">
@@ -6063,22 +6063,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
         <v>287.8657185439749</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937636</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769885</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>617.7751448769885</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127508</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,22 +6300,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595111</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181403</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.872413514815</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>864.7097725347917</v>
+        <v>790.3368563937639</v>
       </c>
       <c r="C31" t="n">
-        <v>692.1480610180166</v>
+        <v>617.7751448769889</v>
       </c>
       <c r="D31" t="n">
-        <v>526.2700682195393</v>
+        <v>451.8971520785116</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5120644702766</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2088.321729149536</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1801.366221019967</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1529.339816606258</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1283.948061939671</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.528391253779</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="32">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>875.5388337745582</v>
+        <v>834.8539430951545</v>
       </c>
       <c r="C34" t="n">
-        <v>702.9771222577831</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2058.465899709899</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1771.510391580329</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759859</v>
+        <v>1499.483987166621</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.777123179437</v>
+        <v>1254.092232500033</v>
       </c>
       <c r="Y34" t="n">
-        <v>1067.357452493545</v>
+        <v>1026.672561814142</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197254</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581785</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M35" t="n">
-        <v>1254.614538886369</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>2380.345522322816</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3360.525188893122</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4188.835063726518</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4735.333849685113</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581785</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581785</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581785</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581785</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581785</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1036.216302815309</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936685</v>
+        <v>863.6545912985334</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080674</v>
+        <v>697.7765985000561</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716808</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463118</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850156</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882663</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758677</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823632</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
-        <v>925.3347848856843</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694962</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947931</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1972.872751300484</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976694</v>
+        <v>1455.454592220188</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1228.034921534296</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581785</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239092</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>790.3368563937639</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>617.7751448769889</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>451.8971520785116</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>451.8971520785116</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>275.1900980402678</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385016</v>
+        <v>109.5988230660955</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>109.5988230660955</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581785</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1254.614538886369</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936671</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.614538886369</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2380.345522322816</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3360.525188893122</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4188.835063726518</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.9987875054338</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099307</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608837516</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>223.0854642319581</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8459,16 +8459,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>446.3988366223729</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>596.6946901895881</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895881</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>418.7881832976783</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>596.6946901895881</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8623,7 +8623,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>143.4877018850173</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>950.4935013977226</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791393</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>982.1266850079285</v>
+        <v>1101.201496790749</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,7 +9179,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>769.142950955239</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791393</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>144.4457920260402</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10826,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437651</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1110.685103827445</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11315,7 +11315,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>525.6020760720385</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>166.849800907274</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>268.011132734622</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
-        <v>90.22000922290073</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>166.4371794281419</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.0111327346225</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081386</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>384.7163557629656</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>44.85829954967897</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>268.0111327346223</v>
       </c>
     </row>
     <row r="21">
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>90.22000922290107</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>84.34995760698673</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.4480280049972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>48.19697732171615</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.62918697961749</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>44.07191583437722</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>63.14631452530426</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.50874676570871</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>227.3655273957971</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>23.65030257151099</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>694727.8271060683</v>
+        <v>707733.457160347</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>694727.8271060683</v>
+        <v>707733.4571603469</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>694727.8271060683</v>
+        <v>707733.4571603469</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>694727.8271060684</v>
+        <v>707733.4571603469</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737600.6177922932</v>
+        <v>737600.6177922931</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750606.247846572</v>
+        <v>737600.6177922932</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750606.247846572</v>
+        <v>737600.6177922934</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750606.247846572</v>
+        <v>737600.6177922934</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750606.247846572</v>
+        <v>737600.6177922932</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>173681.9567765171</v>
+        <v>176933.3642900868</v>
       </c>
       <c r="F2" t="n">
-        <v>173681.9567765171</v>
+        <v>176933.3642900868</v>
       </c>
       <c r="G2" t="n">
-        <v>173681.9567765171</v>
+        <v>176933.3642900868</v>
       </c>
       <c r="H2" t="n">
-        <v>173681.9567765171</v>
+        <v>176933.3642900868</v>
       </c>
       <c r="I2" t="n">
         <v>184400.1544480733</v>
@@ -26344,16 +26344,16 @@
         <v>184400.1544480733</v>
       </c>
       <c r="M2" t="n">
-        <v>187651.5619616429</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="N2" t="n">
-        <v>187651.561961643</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="O2" t="n">
-        <v>187651.5619616429</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="P2" t="n">
-        <v>187651.5619616429</v>
+        <v>184400.1544480734</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390628</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212172</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405936</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.61565678307</v>
+        <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784484</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.59295915229</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345142</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715076</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697597</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>129712.5371811802</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>759.4645886419044</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="F4" t="n">
-        <v>759.4645886419041</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="G4" t="n">
-        <v>759.4645886419041</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="H4" t="n">
-        <v>759.4645886419041</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26448,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>16466.62778780241</v>
+        <v>806.3323907825455</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780232</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780233</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780232</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.136258142</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.63716352696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223131</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223131</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223131</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223131</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-183132.620105049</v>
+        <v>-214798.2147719099</v>
       </c>
       <c r="C6" t="n">
-        <v>-40941.31944533902</v>
+        <v>-17405.91319227158</v>
       </c>
       <c r="D6" t="n">
-        <v>-65519.86177518583</v>
+        <v>-65.36881836527027</v>
       </c>
       <c r="E6" t="n">
-        <v>-72669.99104494968</v>
+        <v>-59171.29387364066</v>
       </c>
       <c r="F6" t="n">
-        <v>101231.5557956439</v>
+        <v>102563.7813364736</v>
       </c>
       <c r="G6" t="n">
-        <v>101231.5557956439</v>
+        <v>102563.7813364736</v>
       </c>
       <c r="H6" t="n">
-        <v>101231.5557956439</v>
+        <v>102563.7813364737</v>
       </c>
       <c r="I6" t="n">
-        <v>79513.96779471515</v>
+        <v>87487.64347927601</v>
       </c>
       <c r="J6" t="n">
-        <v>-5138.88189349194</v>
+        <v>-54755.47037349799</v>
       </c>
       <c r="K6" t="n">
-        <v>105875.5834514982</v>
+        <v>92038.35054427074</v>
       </c>
       <c r="L6" t="n">
-        <v>62242.99049234591</v>
+        <v>105852.3591121156</v>
       </c>
       <c r="M6" t="n">
-        <v>-47841.30058676342</v>
+        <v>-29137.58550088769</v>
       </c>
       <c r="N6" t="n">
-        <v>95669.31944775108</v>
+        <v>105852.3591121156</v>
       </c>
       <c r="O6" t="n">
-        <v>95669.31944775087</v>
+        <v>105852.3591121156</v>
       </c>
       <c r="P6" t="n">
-        <v>95669.31944775091</v>
+        <v>105852.3591121156</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.6946901895881</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="D4" t="n">
-        <v>172.3988326694837</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.43255310369</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146726</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694837</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666677</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694837</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.43255310369</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.17333469697812</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>362.4455063051585</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>203.2899148959308</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>35.63633953051652</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>215.6297823718307</v>
+        <v>336.2803111752585</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.44582695399214</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>201.9333177378963</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>21.53984556029428</v>
+        <v>268.2784653227395</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>272.5478963105011</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>135.3636110865064</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874714</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.9987875054338</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099307</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608837516</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>223.0854642319581</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>446.3988366223729</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>596.6946901895881</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895881</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>418.7881832976783</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>596.6946901895881</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>143.4877018850173</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,13 +35413,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>950.4935013977226</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>103.3290013791393</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>982.1266850079285</v>
+        <v>1101.201496790749</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>769.142950955239</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36048,16 +36048,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>103.3290013791393</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>144.4457920260402</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.769502834844</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.669934346789</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437651</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1110.685103827445</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38035,7 +38035,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>525.6020760720385</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
